--- a/Clave materia prima/Copia de Libro1.xlsx
+++ b/Clave materia prima/Copia de Libro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltercar\Desktop\haceb\Clave materia prima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCF5A851-DFC1-471D-9479-151437DF195C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC83F18-CC43-4E16-8638-01D200E45066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{521A7DBC-EF95-47F0-9836-D3D4C7138B8D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{521A7DBC-EF95-47F0-9836-D3D4C7138B8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -8083,8 +8083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D64729-0F34-4EA9-9743-DBC7BF789608}">
   <dimension ref="A1:C454"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15171,7 +15171,7 @@
   <dimension ref="A1:C155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16894,7 +16894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2935CBDD-B350-4560-A8CA-CFFE90F17DAF}">
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -25943,6 +25943,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -27313,8 +27316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192E1CAD-4447-48A6-B920-EBE37E4869B5}">
   <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
